--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -866,7 +866,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1169,7 +1169,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1867,7 +1867,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2304,7 +2304,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2541,16 +2537,16 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2561,7 +2557,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2572,28 +2568,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2643,13 +2639,13 @@
         <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>81</v>
@@ -2675,7 +2671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2686,25 +2682,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2755,19 +2751,19 @@
         <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -2787,7 +2783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2798,28 +2794,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2869,19 +2865,19 @@
         <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -2901,7 +2897,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2912,7 +2908,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>81</v>
@@ -2924,16 +2920,16 @@
         <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2959,43 +2955,43 @@
         <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>81</v>
@@ -3015,18 +3011,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>81</v>
@@ -3038,16 +3034,16 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3097,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -3129,11 +3125,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3152,16 +3148,16 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3211,7 +3207,7 @@
         <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3232,7 +3228,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -3243,7 +3239,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3266,13 +3262,13 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3311,17 +3307,17 @@
         <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3333,7 +3329,7 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>81</v>
@@ -3353,10 +3349,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>81</v>
@@ -3378,13 +3374,13 @@
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3435,7 +3431,7 @@
         <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3444,10 +3440,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -3467,11 +3463,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3484,25 +3480,25 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>81</v>
@@ -3551,7 +3547,7 @@
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3563,7 +3559,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>81</v>
@@ -3572,7 +3568,7 @@
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>81</v>
@@ -3583,7 +3579,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3591,7 +3587,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3606,16 +3602,16 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3653,17 +3649,17 @@
         <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3675,40 +3671,40 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3720,16 +3716,16 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3779,7 +3775,7 @@
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3791,27 +3787,27 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3822,7 +3818,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -3834,13 +3830,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3891,28 +3887,28 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3923,11 +3919,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3946,16 +3942,16 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3993,19 +3989,19 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4017,7 +4013,7 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
@@ -4026,7 +4022,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4037,7 +4033,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4048,31 +4044,31 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4097,63 +4093,63 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4164,31 +4160,31 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4213,63 +4209,63 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4277,115 +4273,115 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4393,31 +4389,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4431,75 +4427,75 @@
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4510,25 +4506,25 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4579,39 +4575,39 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4622,28 +4618,28 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4693,42 +4689,42 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
@@ -4750,16 +4746,16 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4809,7 +4805,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4821,27 +4817,27 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4852,7 +4848,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4864,13 +4860,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4921,28 +4917,28 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4953,11 +4949,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4976,16 +4972,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5023,19 +5019,19 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5047,7 +5043,7 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -5056,7 +5052,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5067,7 +5063,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5078,31 +5074,31 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -5127,63 +5123,63 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5194,31 +5190,31 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5243,63 +5239,63 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5307,115 +5303,115 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5423,31 +5419,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5461,75 +5457,75 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5540,25 +5536,25 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5609,39 +5605,39 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5652,28 +5648,28 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5723,39 +5719,39 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5763,31 +5759,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5813,55 +5809,55 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5869,7 +5865,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5880,7 +5876,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5892,16 +5888,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5927,52 +5923,52 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5983,7 +5979,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5991,31 +5987,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6041,55 +6037,55 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6097,7 +6093,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6120,16 +6116,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6155,11 +6151,11 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -6177,7 +6173,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6189,19 +6185,19 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6209,7 +6205,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6220,28 +6216,28 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6267,55 +6263,55 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6323,7 +6319,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6334,28 +6330,28 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6405,19 +6401,19 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>81</v>
@@ -6426,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -6437,7 +6433,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6448,25 +6444,25 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6517,19 +6513,19 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
@@ -6538,7 +6534,7 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -6549,7 +6545,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6557,31 +6553,31 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6619,83 +6615,83 @@
         <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6745,39 +6741,39 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6785,31 +6781,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6859,39 +6855,39 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6902,7 +6898,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6914,16 +6910,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6973,39 +6969,39 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7028,16 +7024,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7087,7 +7083,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7099,19 +7095,19 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7119,7 +7115,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7127,28 +7123,28 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7199,39 +7195,39 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7242,28 +7238,28 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7313,31 +7309,31 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7345,7 +7341,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7356,7 +7352,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7368,16 +7364,16 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7427,31 +7423,31 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7459,7 +7455,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7470,28 +7466,28 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7517,50 +7513,50 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7571,7 +7567,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7582,7 +7578,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
@@ -7594,16 +7590,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7653,19 +7649,19 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
@@ -7674,10 +7670,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7685,7 +7681,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7708,16 +7704,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7743,14 +7739,14 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7779,27 +7775,27 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7822,16 +7818,16 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7881,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7893,19 +7889,19 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7913,7 +7909,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7933,19 +7929,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7995,7 +7991,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8007,16 +8003,16 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8047,19 +8043,19 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8109,7 +8105,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8121,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -8130,7 +8126,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -8141,7 +8137,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8161,19 +8157,19 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8223,7 +8219,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8235,16 +8231,16 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -8255,7 +8251,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8266,29 +8262,29 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -8337,28 +8333,28 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8369,7 +8365,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8380,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8392,16 +8388,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8427,52 +8423,52 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8483,7 +8479,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8506,16 +8502,16 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8565,7 +8561,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8577,16 +8573,16 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8597,7 +8593,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8620,16 +8616,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8679,7 +8675,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8691,16 +8687,16 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8711,7 +8707,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8734,16 +8730,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8793,7 +8789,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8805,7 +8801,7 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>81</v>
@@ -8814,7 +8810,7 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8825,7 +8821,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8836,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8848,13 +8844,13 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8905,28 +8901,28 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8937,7 +8933,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8948,7 +8944,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8960,13 +8956,13 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9017,28 +9013,28 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9049,7 +9045,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9072,13 +9068,13 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9117,17 +9113,17 @@
         <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9139,7 +9135,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9159,10 +9155,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>81</v>
@@ -9184,13 +9180,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9241,7 +9237,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9250,10 +9246,10 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9273,10 +9269,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>81</v>
@@ -9286,7 +9282,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9298,13 +9294,13 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9355,7 +9351,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9364,10 +9360,10 @@
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9387,11 +9383,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9404,25 +9400,25 @@
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9471,7 +9467,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9483,7 +9479,7 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9492,7 +9488,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9503,7 +9499,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9514,7 +9510,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9526,16 +9522,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9585,19 +9581,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9606,7 +9602,7 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9617,7 +9613,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9628,7 +9624,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9640,13 +9636,13 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9697,28 +9693,28 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9729,11 +9725,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9752,16 +9748,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9811,7 +9807,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9823,7 +9819,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
@@ -9832,7 +9828,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9843,11 +9839,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9860,25 +9856,25 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="M67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9927,7 +9923,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9939,7 +9935,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>81</v>
@@ -9948,7 +9944,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9959,7 +9955,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9970,7 +9966,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -9982,16 +9978,16 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10041,39 +10037,39 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10084,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10096,16 +10092,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10155,19 +10151,19 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10176,7 +10172,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10187,7 +10183,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10198,7 +10194,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10210,16 +10206,16 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10269,19 +10265,19 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -10290,7 +10286,7 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10301,7 +10297,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10312,7 +10308,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10324,19 +10320,19 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
@@ -10385,28 +10381,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10417,7 +10413,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10428,7 +10424,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10440,13 +10436,13 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10497,28 +10493,28 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10529,11 +10525,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10552,16 +10548,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10599,19 +10595,19 @@
         <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB73" t="s" s="2">
+      <c r="AE73" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10623,7 +10619,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10632,7 +10628,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10643,7 +10639,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10654,28 +10650,28 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10725,39 +10721,39 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH74" t="s" s="2">
+      <c r="AI74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AI74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10768,112 +10764,112 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Q75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10884,7 +10880,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
@@ -10896,16 +10892,16 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10955,39 +10951,39 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10998,7 +10994,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11010,16 +11006,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11069,39 +11065,39 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11112,7 +11108,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11124,16 +11120,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11183,28 +11179,28 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11215,7 +11211,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11226,7 +11222,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11238,13 +11234,13 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11295,28 +11291,28 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11327,11 +11323,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11350,16 +11346,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11397,19 +11393,19 @@
         <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB80" t="s" s="2">
+      <c r="AE80" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11421,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
@@ -11430,7 +11426,7 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11441,7 +11437,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11452,31 +11448,31 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J81" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>81</v>
@@ -11525,39 +11521,39 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11568,112 +11564,112 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P82" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="O82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P82" t="s" s="2">
+      <c r="Q82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X82" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Q82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X82" t="s" s="2">
+      <c r="Y82" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE82" t="s" s="2">
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11684,110 +11680,110 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="R83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE83" t="s" s="2">
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11798,110 +11794,110 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE84" t="s" s="2">
+      <c r="AF84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AF84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11912,112 +11908,112 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J85" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="R85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE85" t="s" s="2">
+      <c r="AF85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AF85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12028,7 +12024,7 @@
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>81</v>
@@ -12040,16 +12036,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12099,19 +12095,19 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12120,10 +12116,10 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -12131,7 +12127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12142,7 +12138,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>81</v>
@@ -12154,13 +12150,13 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12211,28 +12207,28 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12243,7 +12239,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12254,7 +12250,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>81</v>
@@ -12266,13 +12262,13 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12323,28 +12319,28 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12355,11 +12351,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12378,16 +12374,16 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12437,7 +12433,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12449,7 +12445,7 @@
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
@@ -12458,7 +12454,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12469,11 +12465,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12486,25 +12482,25 @@
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="M90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
@@ -12553,7 +12549,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12565,7 +12561,7 @@
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12574,7 +12570,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12585,7 +12581,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12593,10 +12589,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>81</v>
@@ -12608,16 +12604,16 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12643,61 +12639,61 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12708,7 +12704,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>81</v>
@@ -12720,16 +12716,16 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12755,63 +12751,63 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Y92" t="s" s="2">
+      <c r="Z92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AL92" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12822,7 +12818,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>81</v>
@@ -12834,16 +12830,16 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12893,28 +12889,28 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
@@ -12925,11 +12921,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12948,16 +12944,16 @@
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13007,7 +13003,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13019,7 +13015,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>81</v>
@@ -13028,7 +13024,7 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
@@ -13039,7 +13035,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13062,16 +13058,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13121,7 +13117,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13133,16 +13129,16 @@
         <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
